--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ccl21b-Cxcr3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ccl21b-Cxcr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,9 +86,6 @@
   </si>
   <si>
     <t>Cxcr3</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>Inflammatory-Mac</t>
@@ -452,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -546,40 +543,40 @@
         <v>1.132223</v>
       </c>
       <c r="I2">
-        <v>0.6796327704557233</v>
+        <v>0.4877525841056716</v>
       </c>
       <c r="J2">
-        <v>0.7608872132954309</v>
+        <v>0.588184597482006</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.2387926666666667</v>
+        <v>1.375733333333333</v>
       </c>
       <c r="N2">
-        <v>0.716378</v>
+        <v>4.1272</v>
       </c>
       <c r="O2">
-        <v>0.120289725121813</v>
+        <v>0.457732955319909</v>
       </c>
       <c r="P2">
-        <v>0.120289725121813</v>
+        <v>0.457732955319909</v>
       </c>
       <c r="Q2">
-        <v>0.09012218314377776</v>
+        <v>0.5192123072888889</v>
       </c>
       <c r="R2">
-        <v>0.8110996482939999</v>
+        <v>4.6729107656</v>
       </c>
       <c r="S2">
-        <v>0.08175283914189523</v>
+        <v>0.2232604317876115</v>
       </c>
       <c r="T2">
-        <v>0.0915269137360097</v>
+        <v>0.2692314740790897</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -608,45 +605,45 @@
         <v>1.132223</v>
       </c>
       <c r="I3">
-        <v>0.6796327704557233</v>
+        <v>0.4877525841056716</v>
       </c>
       <c r="J3">
-        <v>0.7608872132954309</v>
+        <v>0.588184597482006</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.6404243333333333</v>
+        <v>1.629803666666667</v>
       </c>
       <c r="N3">
-        <v>1.921273</v>
+        <v>4.889411000000001</v>
       </c>
       <c r="O3">
-        <v>0.3226081776017146</v>
+        <v>0.542267044680091</v>
       </c>
       <c r="P3">
-        <v>0.3226081776017146</v>
+        <v>0.542267044680091</v>
       </c>
       <c r="Q3">
-        <v>0.2417010533198888</v>
+        <v>0.6151003989614445</v>
       </c>
       <c r="R3">
-        <v>2.175309479879</v>
+        <v>5.535903590653001</v>
       </c>
       <c r="S3">
-        <v>0.2192550895151253</v>
+        <v>0.2644921523180601</v>
       </c>
       <c r="T3">
-        <v>0.245468437241686</v>
+        <v>0.3189531234029163</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
@@ -655,25 +652,25 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3774076666666666</v>
+        <v>0.396361</v>
       </c>
       <c r="H4">
-        <v>1.132223</v>
+        <v>0.7927219999999999</v>
       </c>
       <c r="I4">
-        <v>0.6796327704557233</v>
+        <v>0.5122474158943284</v>
       </c>
       <c r="J4">
-        <v>0.7608872132954309</v>
+        <v>0.411815402517994</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,28 +679,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.105929</v>
+        <v>1.375733333333333</v>
       </c>
       <c r="N4">
-        <v>3.317787</v>
+        <v>4.1272</v>
       </c>
       <c r="O4">
-        <v>0.5571020972764724</v>
+        <v>0.457732955319909</v>
       </c>
       <c r="P4">
-        <v>0.5571020972764724</v>
+        <v>0.457732955319909</v>
       </c>
       <c r="Q4">
-        <v>0.417386083389</v>
+        <v>0.5452870397333334</v>
       </c>
       <c r="R4">
-        <v>3.756474750501</v>
+        <v>3.2717222384</v>
       </c>
       <c r="S4">
-        <v>0.3786248417987028</v>
+        <v>0.2344725235322975</v>
       </c>
       <c r="T4">
-        <v>0.4238918623177351</v>
+        <v>0.1885014812408193</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,179 +714,55 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
         <v>1</v>
       </c>
-      <c r="F5">
-        <v>0.5</v>
-      </c>
       <c r="G5">
-        <v>0.1779035</v>
+        <v>0.396361</v>
       </c>
       <c r="H5">
-        <v>0.355807</v>
+        <v>0.7927219999999999</v>
       </c>
       <c r="I5">
-        <v>0.3203672295442765</v>
+        <v>0.5122474158943284</v>
       </c>
       <c r="J5">
-        <v>0.2391127867045692</v>
+        <v>0.411815402517994</v>
       </c>
       <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
         <v>1</v>
       </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M5">
-        <v>0.2387926666666667</v>
+        <v>1.629803666666667</v>
       </c>
       <c r="N5">
-        <v>0.716378</v>
+        <v>4.889411000000001</v>
       </c>
       <c r="O5">
-        <v>0.120289725121813</v>
+        <v>0.542267044680091</v>
       </c>
       <c r="P5">
-        <v>0.120289725121813</v>
+        <v>0.542267044680091</v>
       </c>
       <c r="Q5">
-        <v>0.04248205117433333</v>
+        <v>0.6459906111236667</v>
       </c>
       <c r="R5">
-        <v>0.254892307046</v>
+        <v>3.875943666742</v>
       </c>
       <c r="S5">
-        <v>0.03853688597991781</v>
+        <v>0.277774892362031</v>
       </c>
       <c r="T5">
-        <v>0.02876281138580334</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.5</v>
-      </c>
-      <c r="G6">
-        <v>0.1779035</v>
-      </c>
-      <c r="H6">
-        <v>0.355807</v>
-      </c>
-      <c r="I6">
-        <v>0.3203672295442765</v>
-      </c>
-      <c r="J6">
-        <v>0.2391127867045692</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M6">
-        <v>0.6404243333333333</v>
-      </c>
-      <c r="N6">
-        <v>1.921273</v>
-      </c>
-      <c r="O6">
-        <v>0.3226081776017146</v>
-      </c>
-      <c r="P6">
-        <v>0.3226081776017146</v>
-      </c>
-      <c r="Q6">
-        <v>0.1139337303851667</v>
-      </c>
-      <c r="R6">
-        <v>0.683602382311</v>
-      </c>
-      <c r="S6">
-        <v>0.1033530880865892</v>
-      </c>
-      <c r="T6">
-        <v>0.07713974036002855</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.5</v>
-      </c>
-      <c r="G7">
-        <v>0.1779035</v>
-      </c>
-      <c r="H7">
-        <v>0.355807</v>
-      </c>
-      <c r="I7">
-        <v>0.3203672295442765</v>
-      </c>
-      <c r="J7">
-        <v>0.2391127867045692</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M7">
-        <v>1.105929</v>
-      </c>
-      <c r="N7">
-        <v>3.317787</v>
-      </c>
-      <c r="O7">
-        <v>0.5571020972764724</v>
-      </c>
-      <c r="P7">
-        <v>0.5571020972764724</v>
-      </c>
-      <c r="Q7">
-        <v>0.1967486398515</v>
-      </c>
-      <c r="R7">
-        <v>1.180491839109</v>
-      </c>
-      <c r="S7">
-        <v>0.1784772554777695</v>
-      </c>
-      <c r="T7">
-        <v>0.1332102349587373</v>
+        <v>0.2233139212771747</v>
       </c>
     </row>
   </sheetData>
